--- a/dataset/final_datasets/sports.xlsx
+++ b/dataset/final_datasets/sports.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\final_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02AA7EE-5CA7-4B26-B593-97C7111B7A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAADD27B-6F36-4330-A4C2-C49887B06DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28995" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$336</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="245">
   <si>
     <t>Shooting</t>
   </si>
@@ -1089,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4435,21 +4435,24 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C197" t="s">
-        <v>70</v>
+        <v>234</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
       </c>
       <c r="E197" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" t="s">
         <v>47</v>
@@ -4458,7 +4461,7 @@
         <v>234</v>
       </c>
       <c r="D198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E198" t="s">
         <v>58</v>
@@ -4466,16 +4469,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
         <v>47</v>
       </c>
       <c r="C199" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E199" t="s">
         <v>58</v>
@@ -4483,7 +4486,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
         <v>47</v>
@@ -4492,7 +4495,7 @@
         <v>236</v>
       </c>
       <c r="D200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E200" t="s">
         <v>58</v>
@@ -4500,16 +4503,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
         <v>47</v>
       </c>
       <c r="C201" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E201" t="s">
         <v>58</v>
@@ -4517,7 +4520,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
         <v>47</v>
@@ -4526,7 +4529,7 @@
         <v>239</v>
       </c>
       <c r="D202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E202" t="s">
         <v>58</v>
@@ -4534,16 +4537,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
         <v>47</v>
       </c>
       <c r="C203" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E203" t="s">
         <v>58</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
         <v>47</v>
@@ -4560,7 +4563,7 @@
         <v>235</v>
       </c>
       <c r="D204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E204" t="s">
         <v>58</v>
@@ -4568,16 +4571,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
         <v>47</v>
       </c>
       <c r="C205" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E205" t="s">
         <v>58</v>
@@ -4585,7 +4588,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
         <v>47</v>
@@ -4594,7 +4597,7 @@
         <v>238</v>
       </c>
       <c r="D206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E206" t="s">
         <v>58</v>
@@ -4602,16 +4605,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
         <v>47</v>
       </c>
       <c r="C207" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E207" t="s">
         <v>58</v>
@@ -4619,7 +4622,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
         <v>47</v>
@@ -4628,7 +4631,7 @@
         <v>237</v>
       </c>
       <c r="D208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E208" t="s">
         <v>58</v>
@@ -4636,24 +4639,24 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
         <v>47</v>
       </c>
       <c r="C209" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E209" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
         <v>47</v>
@@ -4662,7 +4665,7 @@
         <v>210</v>
       </c>
       <c r="D210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E210" t="s">
         <v>59</v>
@@ -4670,33 +4673,33 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E211" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
         <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E212" t="s">
         <v>58</v>
@@ -4704,16 +4707,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" t="s">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="C213">
+        <v>470</v>
       </c>
       <c r="D213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E213" t="s">
         <v>58</v>
@@ -4721,7 +4724,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
         <v>45</v>
@@ -4730,7 +4733,7 @@
         <v>470</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E214" t="s">
         <v>58</v>
@@ -4738,16 +4741,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
         <v>45</v>
       </c>
-      <c r="C215">
-        <v>470</v>
+      <c r="C215" t="s">
+        <v>65</v>
       </c>
       <c r="D215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E215" t="s">
         <v>58</v>
@@ -4755,16 +4758,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
         <v>45</v>
       </c>
       <c r="C216" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E216" t="s">
         <v>58</v>
@@ -4772,30 +4775,30 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
         <v>45</v>
       </c>
       <c r="C217" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E217" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" t="s">
         <v>45</v>
       </c>
       <c r="C218" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="D218" t="s">
         <v>6</v>
@@ -4806,16 +4809,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" t="s">
         <v>45</v>
       </c>
       <c r="C219" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E219" t="s">
         <v>59</v>
@@ -4823,41 +4826,41 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" t="s">
         <v>45</v>
       </c>
       <c r="C220" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D220" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E220" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
         <v>45</v>
       </c>
       <c r="C221" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D221" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
         <v>45</v>
@@ -4866,7 +4869,7 @@
         <v>208</v>
       </c>
       <c r="D222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E222" t="s">
         <v>59</v>
@@ -4874,16 +4877,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="D223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E223" t="s">
         <v>59</v>
@@ -4891,7 +4894,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" t="s">
         <v>0</v>
@@ -4900,15 +4903,15 @@
         <v>56</v>
       </c>
       <c r="D224" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E224" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" t="s">
         <v>0</v>
@@ -4917,24 +4920,24 @@
         <v>56</v>
       </c>
       <c r="D225" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226" t="s">
         <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E226" t="s">
         <v>59</v>
@@ -4942,7 +4945,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
         <v>0</v>
@@ -4951,15 +4954,15 @@
         <v>60</v>
       </c>
       <c r="D227" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E227" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
         <v>0</v>
@@ -4968,21 +4971,21 @@
         <v>60</v>
       </c>
       <c r="D228" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E228" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229" t="s">
         <v>0</v>
       </c>
       <c r="C229" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D229" t="s">
         <v>5</v>
@@ -4993,16 +4996,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
         <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E230" t="s">
         <v>59</v>
@@ -5010,13 +5013,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D231" t="s">
         <v>6</v>
@@ -5027,7 +5030,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
         <v>0</v>
@@ -5036,7 +5039,7 @@
         <v>66</v>
       </c>
       <c r="D232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E232" t="s">
         <v>59</v>
@@ -5044,16 +5047,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E233" t="s">
         <v>59</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234" t="s">
         <v>0</v>
@@ -5070,7 +5073,7 @@
         <v>72</v>
       </c>
       <c r="D234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E234" t="s">
         <v>59</v>
@@ -5078,16 +5081,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E235" t="s">
         <v>59</v>
@@ -5095,7 +5098,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
         <v>0</v>
@@ -5104,15 +5107,15 @@
         <v>71</v>
       </c>
       <c r="D236" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E236" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
         <v>0</v>
@@ -5121,24 +5124,24 @@
         <v>71</v>
       </c>
       <c r="D237" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E237" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C238" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E238" t="s">
         <v>59</v>
@@ -5146,7 +5149,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
         <v>34</v>
@@ -5155,7 +5158,7 @@
         <v>138</v>
       </c>
       <c r="D239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E239" t="s">
         <v>59</v>
@@ -5163,16 +5166,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240" t="s">
         <v>34</v>
       </c>
       <c r="C240" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E240" t="s">
         <v>59</v>
@@ -5180,7 +5183,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241" t="s">
         <v>34</v>
@@ -5189,7 +5192,7 @@
         <v>153</v>
       </c>
       <c r="D241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E241" t="s">
         <v>59</v>
@@ -5197,16 +5200,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C242" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="D242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E242" t="s">
         <v>59</v>
@@ -5214,7 +5217,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243" t="s">
         <v>27</v>
@@ -5223,7 +5226,7 @@
         <v>111</v>
       </c>
       <c r="D243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E243" t="s">
         <v>59</v>
@@ -5231,13 +5234,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="D244" t="s">
         <v>5</v>
@@ -5248,16 +5251,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="D245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E245" t="s">
         <v>59</v>
@@ -5265,7 +5268,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246" t="s">
         <v>44</v>
@@ -5274,7 +5277,7 @@
         <v>202</v>
       </c>
       <c r="D246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E246" t="s">
         <v>59</v>
@@ -5282,16 +5285,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247" t="s">
         <v>44</v>
       </c>
       <c r="C247" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E247" t="s">
         <v>59</v>
@@ -5299,7 +5302,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248" t="s">
         <v>44</v>
@@ -5308,7 +5311,7 @@
         <v>194</v>
       </c>
       <c r="D248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E248" t="s">
         <v>59</v>
@@ -5316,16 +5319,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249" t="s">
         <v>44</v>
       </c>
       <c r="C249" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E249" t="s">
         <v>59</v>
@@ -5333,7 +5336,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B250" t="s">
         <v>44</v>
@@ -5342,7 +5345,7 @@
         <v>204</v>
       </c>
       <c r="D250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E250" t="s">
         <v>59</v>
@@ -5350,16 +5353,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B251" t="s">
         <v>44</v>
       </c>
       <c r="C251" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E251" t="s">
         <v>59</v>
@@ -5367,7 +5370,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B252" t="s">
         <v>44</v>
@@ -5376,7 +5379,7 @@
         <v>201</v>
       </c>
       <c r="D252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E252" t="s">
         <v>59</v>
@@ -5384,16 +5387,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B253" t="s">
         <v>44</v>
       </c>
       <c r="C253" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E253" t="s">
         <v>59</v>
@@ -5401,7 +5404,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B254" t="s">
         <v>44</v>
@@ -5410,7 +5413,7 @@
         <v>199</v>
       </c>
       <c r="D254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E254" t="s">
         <v>59</v>
@@ -5418,16 +5421,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B255" t="s">
         <v>44</v>
       </c>
       <c r="C255" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E255" t="s">
         <v>59</v>
@@ -5435,7 +5438,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B256" t="s">
         <v>44</v>
@@ -5444,7 +5447,7 @@
         <v>198</v>
       </c>
       <c r="D256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E256" t="s">
         <v>59</v>
@@ -5452,16 +5455,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B257" t="s">
         <v>44</v>
       </c>
       <c r="C257" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E257" t="s">
         <v>59</v>
@@ -5469,7 +5472,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B258" t="s">
         <v>44</v>
@@ -5478,7 +5481,7 @@
         <v>195</v>
       </c>
       <c r="D258" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E258" t="s">
         <v>59</v>
@@ -5486,16 +5489,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B259" t="s">
         <v>44</v>
       </c>
       <c r="C259" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D259" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E259" t="s">
         <v>59</v>
@@ -5503,7 +5506,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B260" t="s">
         <v>44</v>
@@ -5512,7 +5515,7 @@
         <v>197</v>
       </c>
       <c r="D260" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E260" t="s">
         <v>59</v>
@@ -5520,16 +5523,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B261" t="s">
         <v>44</v>
       </c>
       <c r="C261" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D261" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E261" t="s">
         <v>59</v>
@@ -5537,7 +5540,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B262" t="s">
         <v>44</v>
@@ -5546,7 +5549,7 @@
         <v>203</v>
       </c>
       <c r="D262" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E262" t="s">
         <v>59</v>
@@ -5554,16 +5557,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B263" t="s">
         <v>44</v>
       </c>
       <c r="C263" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D263" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E263" t="s">
         <v>59</v>
@@ -5571,7 +5574,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B264" t="s">
         <v>44</v>
@@ -5580,7 +5583,7 @@
         <v>205</v>
       </c>
       <c r="D264" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E264" t="s">
         <v>59</v>
@@ -5588,24 +5591,24 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B265" t="s">
         <v>44</v>
       </c>
       <c r="C265" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D265" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E265" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B266" t="s">
         <v>44</v>
@@ -5614,7 +5617,7 @@
         <v>232</v>
       </c>
       <c r="D266" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E266" t="s">
         <v>58</v>
@@ -5622,16 +5625,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B267" t="s">
         <v>44</v>
       </c>
       <c r="C267" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D267" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E267" t="s">
         <v>58</v>
@@ -5639,7 +5642,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B268" t="s">
         <v>44</v>
@@ -5648,7 +5651,7 @@
         <v>230</v>
       </c>
       <c r="D268" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E268" t="s">
         <v>58</v>
@@ -5656,16 +5659,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B269" t="s">
         <v>44</v>
       </c>
       <c r="C269" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D269" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E269" t="s">
         <v>58</v>
@@ -5673,7 +5676,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B270" t="s">
         <v>44</v>
@@ -5682,7 +5685,7 @@
         <v>231</v>
       </c>
       <c r="D270" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E270" t="s">
         <v>58</v>
@@ -5690,24 +5693,24 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B271" t="s">
         <v>44</v>
       </c>
       <c r="C271" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D271" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E271" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B272" t="s">
         <v>44</v>
@@ -5716,7 +5719,7 @@
         <v>200</v>
       </c>
       <c r="D272" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E272" t="s">
         <v>59</v>
@@ -5724,16 +5727,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B273" t="s">
         <v>44</v>
       </c>
       <c r="C273" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D273" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E273" t="s">
         <v>59</v>
@@ -5741,7 +5744,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B274" t="s">
         <v>44</v>
@@ -5750,7 +5753,7 @@
         <v>192</v>
       </c>
       <c r="D274" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E274" t="s">
         <v>59</v>
@@ -5758,16 +5761,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B275" t="s">
         <v>44</v>
       </c>
       <c r="C275" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D275" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E275" t="s">
         <v>59</v>
@@ -5775,7 +5778,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B276" t="s">
         <v>44</v>
@@ -5784,7 +5787,7 @@
         <v>196</v>
       </c>
       <c r="D276" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E276" t="s">
         <v>59</v>
@@ -5792,16 +5795,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B277" t="s">
         <v>44</v>
       </c>
       <c r="C277" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D277" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E277" t="s">
         <v>59</v>
@@ -5809,7 +5812,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B278" t="s">
         <v>44</v>
@@ -5818,7 +5821,7 @@
         <v>193</v>
       </c>
       <c r="D278" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E278" t="s">
         <v>59</v>
@@ -5826,41 +5829,41 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C279" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="D279" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E279" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B280" t="s">
         <v>16</v>
       </c>
       <c r="C280" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="D280" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E280" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B281" t="s">
         <v>16</v>
@@ -5869,7 +5872,7 @@
         <v>93</v>
       </c>
       <c r="D281" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E281" t="s">
         <v>59</v>
@@ -5877,24 +5880,24 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B282" t="s">
         <v>16</v>
       </c>
       <c r="C282" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="D282" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E282" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B283" t="s">
         <v>16</v>
@@ -5903,7 +5906,7 @@
         <v>10</v>
       </c>
       <c r="D283" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E283" t="s">
         <v>58</v>
@@ -5911,33 +5914,33 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C284" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D284" t="s">
         <v>5</v>
       </c>
       <c r="E284" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
         <v>22</v>
       </c>
       <c r="C285" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D285" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E285" t="s">
         <v>59</v>
@@ -5945,16 +5948,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B286" t="s">
         <v>22</v>
       </c>
       <c r="C286" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D286" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E286" t="s">
         <v>59</v>
@@ -5962,13 +5965,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B287" t="s">
         <v>22</v>
       </c>
       <c r="C287" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D287" t="s">
         <v>5</v>
@@ -5979,16 +5982,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B288" t="s">
         <v>22</v>
       </c>
       <c r="C288" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D288" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E288" t="s">
         <v>59</v>
@@ -5996,16 +5999,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B289" t="s">
         <v>22</v>
       </c>
       <c r="C289" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D289" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E289" t="s">
         <v>59</v>
@@ -6013,16 +6016,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B290" t="s">
         <v>22</v>
       </c>
       <c r="C290" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D290" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E290" t="s">
         <v>59</v>
@@ -6030,13 +6033,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B291" t="s">
         <v>22</v>
       </c>
       <c r="C291" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D291" t="s">
         <v>6</v>
@@ -6047,24 +6050,24 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C292" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="D292" t="s">
         <v>6</v>
       </c>
       <c r="E292" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B293" t="s">
         <v>29</v>
@@ -6073,7 +6076,7 @@
         <v>221</v>
       </c>
       <c r="D293" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E293" t="s">
         <v>58</v>
@@ -6081,7 +6084,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B294" t="s">
         <v>29</v>
@@ -6090,7 +6093,7 @@
         <v>221</v>
       </c>
       <c r="D294" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E294" t="s">
         <v>58</v>
@@ -6098,24 +6101,24 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B295" t="s">
         <v>29</v>
       </c>
       <c r="C295" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="D295" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E295" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B296" t="s">
         <v>29</v>
@@ -6124,7 +6127,7 @@
         <v>93</v>
       </c>
       <c r="D296" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E296" t="s">
         <v>59</v>
@@ -6132,16 +6135,16 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C297" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D297" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E297" t="s">
         <v>59</v>
@@ -6149,16 +6152,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B298" t="s">
         <v>19</v>
       </c>
       <c r="C298" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D298" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E298" t="s">
         <v>59</v>
@@ -6166,16 +6169,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C299" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D299" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E299" t="s">
         <v>59</v>
@@ -6183,67 +6186,67 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B300" t="s">
         <v>14</v>
       </c>
       <c r="C300" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="D300" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E300" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B301" t="s">
         <v>14</v>
       </c>
       <c r="C301" t="s">
-        <v>222</v>
+        <v>5</v>
       </c>
       <c r="D301" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E301" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C302" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D302" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E302" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B303" t="s">
         <v>20</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D303" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E303" t="s">
         <v>58</v>
@@ -6251,16 +6254,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C304" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D304" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E304" t="s">
         <v>58</v>
@@ -6268,16 +6271,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B305" t="s">
         <v>26</v>
       </c>
       <c r="C305" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D305" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E305" t="s">
         <v>58</v>
@@ -6285,33 +6288,33 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C306" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="D306" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E306" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B307" t="s">
         <v>36</v>
       </c>
       <c r="C307" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D307" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E307" t="s">
         <v>59</v>
@@ -6319,16 +6322,16 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B308" t="s">
         <v>36</v>
       </c>
       <c r="C308" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D308" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E308" t="s">
         <v>59</v>
@@ -6336,16 +6339,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B309" t="s">
         <v>36</v>
       </c>
       <c r="C309" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D309" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E309" t="s">
         <v>59</v>
@@ -6353,13 +6356,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B310" t="s">
         <v>36</v>
       </c>
       <c r="C310" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D310" t="s">
         <v>5</v>
@@ -6370,13 +6373,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B311" t="s">
         <v>36</v>
       </c>
       <c r="C311" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D311" t="s">
         <v>5</v>
@@ -6387,16 +6390,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B312" t="s">
         <v>36</v>
       </c>
       <c r="C312" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D312" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E312" t="s">
         <v>59</v>
@@ -6404,16 +6407,16 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B313" t="s">
         <v>36</v>
       </c>
       <c r="C313" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D313" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E313" t="s">
         <v>59</v>
@@ -6421,16 +6424,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B314" t="s">
         <v>36</v>
       </c>
       <c r="C314" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D314" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E314" t="s">
         <v>59</v>
@@ -6438,13 +6441,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B315" t="s">
         <v>36</v>
       </c>
       <c r="C315" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D315" t="s">
         <v>6</v>
@@ -6455,16 +6458,16 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B316" t="s">
         <v>36</v>
       </c>
       <c r="C316" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D316" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E316" t="s">
         <v>59</v>
@@ -6472,16 +6475,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B317" t="s">
         <v>36</v>
       </c>
       <c r="C317" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D317" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E317" t="s">
         <v>59</v>
@@ -6489,13 +6492,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B318" t="s">
         <v>36</v>
       </c>
       <c r="C318" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D318" t="s">
         <v>6</v>
@@ -6506,13 +6509,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C319" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="D319" t="s">
         <v>6</v>
@@ -6523,16 +6526,16 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B320" t="s">
         <v>28</v>
       </c>
       <c r="C320" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D320" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E320" t="s">
         <v>59</v>
@@ -6540,13 +6543,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B321" t="s">
         <v>28</v>
       </c>
       <c r="C321" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D321" t="s">
         <v>5</v>
@@ -6557,16 +6560,16 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B322" t="s">
         <v>28</v>
       </c>
       <c r="C322" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D322" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E322" t="s">
         <v>59</v>
@@ -6574,7 +6577,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B323" t="s">
         <v>28</v>
@@ -6583,7 +6586,7 @@
         <v>112</v>
       </c>
       <c r="D323" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E323" t="s">
         <v>59</v>
@@ -6591,13 +6594,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B324" t="s">
         <v>28</v>
       </c>
       <c r="C324" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D324" t="s">
         <v>5</v>
@@ -6608,16 +6611,16 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B325" t="s">
         <v>28</v>
       </c>
       <c r="C325" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D325" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E325" t="s">
         <v>59</v>
@@ -6625,16 +6628,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B326" t="s">
         <v>28</v>
       </c>
       <c r="C326" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D326" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E326" t="s">
         <v>59</v>
@@ -6642,16 +6645,16 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B327" t="s">
         <v>28</v>
       </c>
       <c r="C327" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D327" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E327" t="s">
         <v>59</v>
@@ -6659,16 +6662,16 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B328" t="s">
         <v>28</v>
       </c>
       <c r="C328" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D328" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E328" t="s">
         <v>59</v>
@@ -6676,16 +6679,16 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B329" t="s">
         <v>28</v>
       </c>
       <c r="C329" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D329" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E329" t="s">
         <v>59</v>
@@ -6693,13 +6696,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B330" t="s">
         <v>28</v>
       </c>
       <c r="C330" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D330" t="s">
         <v>6</v>
@@ -6710,13 +6713,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B331" t="s">
         <v>28</v>
       </c>
       <c r="C331" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D331" t="s">
         <v>6</v>
@@ -6727,13 +6730,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B332" t="s">
         <v>28</v>
       </c>
       <c r="C332" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D332" t="s">
         <v>6</v>
@@ -6744,13 +6747,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B333" t="s">
         <v>28</v>
       </c>
       <c r="C333" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D333" t="s">
         <v>6</v>
@@ -6761,13 +6764,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B334" t="s">
         <v>28</v>
       </c>
       <c r="C334" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D334" t="s">
         <v>6</v>
@@ -6778,13 +6781,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B335" t="s">
         <v>28</v>
       </c>
       <c r="C335" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D335" t="s">
         <v>6</v>
@@ -6795,13 +6798,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B336" t="s">
         <v>28</v>
       </c>
       <c r="C336" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D336" t="s">
         <v>6</v>
@@ -6810,29 +6813,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>336</v>
-      </c>
-      <c r="B337" t="s">
-        <v>28</v>
-      </c>
-      <c r="C337" t="s">
-        <v>114</v>
-      </c>
-      <c r="D337" t="s">
-        <v>6</v>
-      </c>
-      <c r="E337" t="s">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K7476">
-    <sortCondition ref="B2:B7476"/>
-    <sortCondition ref="C2:C7476"/>
-    <sortCondition ref="D2:D7476"/>
-    <sortCondition ref="E2:E7476"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K7475">
+    <sortCondition ref="B2:B7475"/>
+    <sortCondition ref="C2:C7475"/>
+    <sortCondition ref="D2:D7475"/>
+    <sortCondition ref="E2:E7475"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
